--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="N2">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="O2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="P2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="Q2">
-        <v>0.04529622569888889</v>
+        <v>0.02874585148555556</v>
       </c>
       <c r="R2">
-        <v>0.40766603129</v>
+        <v>0.25871266337</v>
       </c>
       <c r="S2">
-        <v>0.003628934987745569</v>
+        <v>0.002308522384773037</v>
       </c>
       <c r="T2">
-        <v>0.003628934987745569</v>
+        <v>0.002308522384773038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>28.171991</v>
       </c>
       <c r="O3">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="P3">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="Q3">
         <v>3.712473671767778</v>
@@ -632,10 +632,10 @@
         <v>33.41226304591</v>
       </c>
       <c r="S3">
-        <v>0.2974271120980577</v>
+        <v>0.2981414058464384</v>
       </c>
       <c r="T3">
-        <v>0.2974271120980577</v>
+        <v>0.2981414058464384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,22 +682,22 @@
         <v>23.905536</v>
       </c>
       <c r="O4">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="P4">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="Q4">
-        <v>3.150244972373333</v>
+        <v>3.150244972373334</v>
       </c>
       <c r="R4">
         <v>28.35220475136</v>
       </c>
       <c r="S4">
-        <v>0.2523838139674315</v>
+        <v>0.2529899328220233</v>
       </c>
       <c r="T4">
-        <v>0.2523838139674315</v>
+        <v>0.2529899328220233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="N5">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="O5">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="P5">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="Q5">
-        <v>0.03654866637788889</v>
+        <v>0.02319448297255556</v>
       </c>
       <c r="R5">
-        <v>0.328937997401</v>
+        <v>0.208750346753</v>
       </c>
       <c r="S5">
-        <v>0.002928118891314482</v>
+        <v>0.001862702977237855</v>
       </c>
       <c r="T5">
-        <v>0.002928118891314482</v>
+        <v>0.001862702977237855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>28.171991</v>
       </c>
       <c r="O6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="P6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="Q6">
         <v>2.995524672808778</v>
@@ -818,10 +818,10 @@
         <v>26.959722055279</v>
       </c>
       <c r="S6">
-        <v>0.2399883019851149</v>
+        <v>0.2405646520783639</v>
       </c>
       <c r="T6">
-        <v>0.2399883019851149</v>
+        <v>0.2405646520783639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>23.905536</v>
       </c>
       <c r="O7">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="P7">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="Q7">
         <v>2.541872986709333</v>
@@ -880,10 +880,10 @@
         <v>22.876856880384</v>
       </c>
       <c r="S7">
-        <v>0.2036437180703358</v>
+        <v>0.2041327838911635</v>
       </c>
       <c r="T7">
-        <v>0.2036437180703358</v>
+        <v>0.2041327838911635</v>
       </c>
     </row>
   </sheetData>
